--- a/Dragonfall/gameData/shared/MilitaryTechs.xlsx
+++ b/Dragonfall/gameData/shared/MilitaryTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3540" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="2360" yWindow="1900" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="militaryTechs" sheetId="28" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
@@ -1241,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -1269,7 +1269,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
@@ -1297,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -1325,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
@@ -1367,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C20" s="1">
         <v>100</v>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21" s="1">
         <v>100</v>
